--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,129 +22,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Numéro
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(caractères alphanumérique)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Date d'octroi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(format dd/mm/yyyy)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Durée
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(en années)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Montant
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(en €)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Prêt/subvention
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(choisir dans la liste déroulante)</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Numéro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date d'octroi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prêt/subvention</t>
   </si>
   <si>
     <t xml:space="preserve">Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(caractères alphanumérique)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(format dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(en années)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(en €)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(choisir dans la liste déroulante)</t>
   </si>
   <si>
     <t xml:space="preserve">Ici quelques explications</t>
@@ -210,7 +120,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -256,13 +166,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -400,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,46 +320,58 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,10 +393,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,13 +490,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="20.83"/>
@@ -612,188 +523,204 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="20">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3" type="list">
-      <formula1>Data!$A$2:$A$10</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="list">
       <formula1>Data!$A$2:$A$10</formula1>
       <formula2>0</formula2>
@@ -867,6 +794,10 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E22" type="list">
+      <formula1>Data!$A$2:$A$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E23" type="list">
       <formula1>Data!$A$2:$A$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -888,54 +819,54 @@
   </sheetPr>
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="19" t="s">
-        <v>6</v>
+      <c r="B2" s="22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="20" t="s">
-        <v>13</v>
+      <c r="B10" s="22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -961,59 +892,59 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>14</v>
+      <c r="A1" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>15</v>
+      <c r="A2" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>16</v>
+      <c r="A3" s="24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
-        <v>17</v>
+      <c r="A4" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>18</v>
+      <c r="A5" s="24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
+      <c r="A6" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>20</v>
+      <c r="A7" s="24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
-        <v>21</v>
+      <c r="A8" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>22</v>
+      <c r="A9" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
-        <v>23</v>
+      <c r="A10" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113D11C-1833-439E-A9D0-E490C9EA5715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE93286-1141-42B1-992D-E22F986AA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -94,28 +94,28 @@
     <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
   </si>
   <si>
-    <t>Subvention Etat</t>
-  </si>
-  <si>
-    <t>Subvention Région</t>
-  </si>
-  <si>
-    <t>Subvention Action Logement</t>
-  </si>
-  <si>
     <t>ANRU</t>
   </si>
   <si>
-    <t>Autre (prêt ou subvention)</t>
-  </si>
-  <si>
     <t>ligne data</t>
   </si>
   <si>
     <t>indiquer l’ensemble des prêts et subventions.</t>
   </si>
   <si>
-    <t>Subvention Ville</t>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Etat</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1083,12 +1083,12 @@
         <v>7</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="21">
         <v>3</v>
@@ -1106,12 +1106,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,21 +1121,21 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EED0w/bq5wYSP5NFtFlSvS/bQRXpTc4Y+DkiQDK9UWc1Jt2wlXJKw0ue03wOcH3LQe6G7fPA28VcVMWwrgh+Gw==" saltValue="x80qp9DZ2g559kSloo/o9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qBPxnFKf6czTrHsTZILOr2KteNUZQGS7Y0GWwiULBQUW1FaCBh1QHoSf+Nvt49WmQ5xh8wujjOhbB+uFBFRxsg==" saltValue="rCR27LIFOeQEvhrf4mKk+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC4EBB-F163-7549-9DAF-2A32075C3585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE93286-1141-42B1-992D-E22F986AA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1560" windowWidth="27020" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -59,16 +59,7 @@
     <t>EPCI</t>
   </si>
   <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
     <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>Etat</t>
   </si>
   <si>
     <t>Montant
@@ -101,6 +92,30 @@
   </si>
   <si>
     <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>ANRU</t>
+  </si>
+  <si>
+    <t>ligne data</t>
+  </si>
+  <si>
+    <t>indiquer l’ensemble des prêts et subventions.</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Etat</t>
   </si>
 </sst>
 </file>
@@ -110,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +149,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -155,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -291,11 +321,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -316,6 +362,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -335,8 +384,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7E685423-C25E-4FB8-8031-A60CD9C41F40}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -421,8 +471,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="preteurs" displayName="preteurs" ref="A1:A7" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A7" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="preteurs" displayName="preteurs" ref="A1:A10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A10" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Prêteurs (Ne pas modifier)" dataDxfId="0"/>
   </tableColumns>
@@ -431,7 +481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -730,46 +780,46 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="24" t="s">
+    <row r="1" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
@@ -777,15 +827,15 @@
       <c r="E3" s="15"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -793,15 +843,15 @@
       <c r="E5" s="15"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -809,15 +859,15 @@
       <c r="E7" s="15"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -825,15 +875,15 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -841,15 +891,15 @@
       <c r="E11" s="15"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -857,15 +907,15 @@
       <c r="E13" s="15"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -873,15 +923,15 @@
       <c r="E15" s="15"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -889,15 +939,15 @@
       <c r="E17" s="15"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -905,15 +955,15 @@
       <c r="E19" s="15"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -921,12 +971,12 @@
       <c r="E21" s="15"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="18"/>
       <c r="C22" s="6"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="7"/>
     </row>
   </sheetData>
@@ -939,12 +989,13 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCD227EF-B54F-034B-A20F-2ABFE6AC8AED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D1B715F-1A5E-466E-BAEF-86A345F6C2E8}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$7</xm:f>
+            <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E22</xm:sqref>
         </x14:dataValidation>
@@ -956,110 +1007,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xyp5JoLIBj04xfeo3gjixCZnjDSb3r3B3A2/5+eMpwyfMsjrwtMZxvmGV5fArHhpo4E6OW5HLTHh1OKPXmxFug==" saltValue="YUqDQtfeltbEtnDV/4S/7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/75Y8XaPJ/860OiFB0DslEFn4QBfJZrHKQrBxOKNaWGlgIQ9yIZO6BXxEUsXSddEo4Qi5gHJXtnbs/IeVCxXFQ==" saltValue="CRd/jr4Pbm73hYcej6gxgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E2" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+aALapghvuu3RA0eppu6l/4wiB8CNkPEhI9tr7nmuY3RJC+f3w2wEmCHfp+8KC5X/ckbUeAloMazA4PGXJifMw==" saltValue="zkKHIvrY1/eq3V2hbRhJsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qBPxnFKf6czTrHsTZILOr2KteNUZQGS7Y0GWwiULBQUW1FaCBh1QHoSf+Nvt49WmQ5xh8wujjOhbB+uFBFRxsg==" saltValue="rCR27LIFOeQEvhrf4mKk+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marjo\Desktop\HD\Beta-Gouv\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\marjolaine\projets\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE93286-1141-42B1-992D-E22F986AA161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA52747-56EE-4892-B6B7-8B2B7CF19282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -103,9 +103,6 @@
     <t>indiquer l’ensemble des prêts et subventions.</t>
   </si>
   <si>
-    <t>Autre</t>
-  </si>
-  <si>
     <t>Commune et action logement</t>
   </si>
   <si>
@@ -116,6 +113,15 @@
   </si>
   <si>
     <t>Etat</t>
+  </si>
+  <si>
+    <t>Autre/Subventions</t>
+  </si>
+  <si>
+    <t>sqdfgth</t>
+  </si>
+  <si>
+    <t>suuuub</t>
   </si>
 </sst>
 </file>
@@ -347,23 +353,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,7 +786,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -820,12 +826,24 @@
       <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14">
+        <v>28972</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16">
+        <v>34000</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1070,7 +1088,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1106,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="21">
         <v>3</v>
@@ -1106,12 +1124,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,7 +1139,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,11 +1149,11 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qBPxnFKf6czTrHsTZILOr2KteNUZQGS7Y0GWwiULBQUW1FaCBh1QHoSf+Nvt49WmQ5xh8wujjOhbB+uFBFRxsg==" saltValue="rCR27LIFOeQEvhrf4mKk+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="twTmi6Rd4fQavULxqJZ3e7rcu7uzEmZnyeESM2YvXe5kicWDvqpc17t2PBPEc9sUGpwS9d1XWWn2H7NEO92iUQ==" saltValue="rqEtg/lYY4Jz7LUBKK/nJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\marjolaine\projets\Beta-Gouv\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA52747-56EE-4892-B6B7-8B2B7CF19282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6605EF-6FC6-BA47-B5BA-6BCF128E8662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="34020" yWindow="4040" windowWidth="27740" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Autre/Subventions</t>
-  </si>
-  <si>
-    <t>sqdfgth</t>
-  </si>
-  <si>
-    <t>suuuub</t>
   </si>
 </sst>
 </file>
@@ -487,7 +481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,18 +780,18 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
@@ -817,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -825,27 +819,15 @@
       <c r="E2" s="28"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="14">
-        <v>28972</v>
-      </c>
-      <c r="C3" s="15">
-        <v>3</v>
-      </c>
-      <c r="D3" s="16">
-        <v>34000</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -853,7 +835,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -861,7 +843,7 @@
       <c r="E5" s="15"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -869,7 +851,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -877,7 +859,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -885,7 +867,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -893,7 +875,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -901,7 +883,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -909,7 +891,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -917,7 +899,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -925,7 +907,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -933,7 +915,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -941,7 +923,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -949,7 +931,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -957,7 +939,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -965,7 +947,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -973,7 +955,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -981,7 +963,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -989,7 +971,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="18"/>
       <c r="C22" s="6"/>
@@ -1031,48 +1013,48 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
@@ -1091,12 +1073,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1112,42 +1094,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6605EF-6FC6-BA47-B5BA-6BCF128E8662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBB9BC6-FF7D-2E4D-9B14-C6E0D2C90DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="4040" windowWidth="27740" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="36040" yWindow="520" windowWidth="27740" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -220,43 +220,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -341,46 +304,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,9 +439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,7 +479,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -627,7 +585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -769,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -780,7 +738,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,192 +750,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1009,9 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467F41B6-50A5-F34D-9811-537B9541F979}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1055,7 +1011,7 @@
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1069,9 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1082,7 +1036,7 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1090,7 +1044,7 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="16">
         <v>3</v>
       </c>
     </row>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBB9BC6-FF7D-2E4D-9B14-C6E0D2C90DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762975EC-3214-904C-AAA5-0B56EA998315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36040" yWindow="520" windowWidth="27740" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="1420" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
 (en €)</t>
   </si>
   <si>
-    <t>Durée
-(en années)</t>
-  </si>
-  <si>
     <t>Date d'octroi
 (format dd/mm/yyyy)</t>
   </si>
@@ -116,6 +112,25 @@
   </si>
   <si>
     <t>Autre/Subventions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durée
+(en années)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Si le prêt est en cours de signature, indiquez une durée indicative</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +178,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -738,7 +762,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,21 +773,21 @@
     <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>5</v>
@@ -987,7 +1011,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
@@ -1002,7 +1026,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1036,7 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1037,12 +1061,12 @@
         <v>7</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
@@ -1050,22 +1074,22 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1075,17 +1099,17 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoub.bouchachia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762975EC-3214-904C-AAA5-0B56EA998315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982554E2-5205-4DF0-BC2E-FDA66B29DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,82 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Ici quelques explications</t>
-  </si>
-  <si>
-    <t>1. Telechager le modèle (ce fichier)</t>
-  </si>
-  <si>
-    <t>3. Enregistrer vos modifications</t>
-  </si>
-  <si>
-    <t>4. Téléverser le fichier modifié dans l'application</t>
-  </si>
-  <si>
-    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
-  </si>
-  <si>
-    <t>Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
-  </si>
-  <si>
-    <t>EPCI</t>
-  </si>
-  <si>
-    <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>Montant
-(en €)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Numéro
+(caractères alphanuméric)</t>
+  </si>
+  <si>
+    <t>Financement</t>
   </si>
   <si>
     <t>Date d'octroi
 (format dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>Numéro
-(caractères alphanuméric)</t>
-  </si>
-  <si>
-    <t>Prêteur
-(choisir dans la liste déroulante)</t>
-  </si>
-  <si>
-    <t>CDC pour le foncier</t>
-  </si>
-  <si>
-    <t>CDC pour le logement</t>
-  </si>
-  <si>
-    <t>2. Modifier à votre guise le fichier</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
-    <t>ANRU</t>
-  </si>
-  <si>
-    <t>ligne data</t>
-  </si>
-  <si>
-    <t>indiquer l’ensemble des prêts et subventions.</t>
-  </si>
-  <si>
-    <t>Commune et action logement</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>Autre/Subventions</t>
   </si>
   <si>
     <r>
@@ -131,6 +68,74 @@
       </rPr>
       <t>Si le prêt est en cours de signature, indiquez une durée indicative</t>
     </r>
+  </si>
+  <si>
+    <t>Montant
+(en €)</t>
+  </si>
+  <si>
+    <t>Prêteur
+(choisir dans la liste déroulante)</t>
+  </si>
+  <si>
+    <t>Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
+  </si>
+  <si>
+    <t>Ici quelques explications</t>
+  </si>
+  <si>
+    <t>1. Telechager le modèle (ce fichier)</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>3. Enregistrer vos modifications</t>
+  </si>
+  <si>
+    <t>4. Téléverser le fichier modifié dans l'application</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
+  </si>
+  <si>
+    <t>indiquer l’ensemble des prêts et subventions.</t>
+  </si>
+  <si>
+    <t>Prêteurs (Ne pas modifier)</t>
+  </si>
+  <si>
+    <t>ligne data</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>CDC pour le foncier</t>
+  </si>
+  <si>
+    <t>CDC pour le logement</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>EPCI</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>ANRU</t>
+  </si>
+  <si>
+    <t>Autre/Subventions</t>
   </si>
 </sst>
 </file>
@@ -328,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,6 +352,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -463,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -759,216 +770,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>10</v>
+    <row r="1" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="19"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -979,7 +1015,7 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E22</xm:sqref>
+          <xm:sqref>F3:F22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -993,50 +1029,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1051,65 +1087,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762975EC-3214-904C-AAA5-0B56EA998315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{762975EC-3214-904C-AAA5-0B56EA998315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7178763-0BBA-45B8-86F6-6906562114A1}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,82 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Ici quelques explications</t>
-  </si>
-  <si>
-    <t>1. Telechager le modèle (ce fichier)</t>
-  </si>
-  <si>
-    <t>3. Enregistrer vos modifications</t>
-  </si>
-  <si>
-    <t>4. Téléverser le fichier modifié dans l'application</t>
-  </si>
-  <si>
-    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
-  </si>
-  <si>
-    <t>Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
-  </si>
-  <si>
-    <t>EPCI</t>
-  </si>
-  <si>
-    <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>Montant
-(en €)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Numéro
+(caractères alphanuméric)</t>
+  </si>
+  <si>
+    <t>Financement</t>
   </si>
   <si>
     <t>Date d'octroi
 (format dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>Numéro
-(caractères alphanuméric)</t>
-  </si>
-  <si>
-    <t>Prêteur
-(choisir dans la liste déroulante)</t>
-  </si>
-  <si>
-    <t>CDC pour le foncier</t>
-  </si>
-  <si>
-    <t>CDC pour le logement</t>
-  </si>
-  <si>
-    <t>2. Modifier à votre guise le fichier</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
-    <t>ANRU</t>
-  </si>
-  <si>
-    <t>ligne data</t>
-  </si>
-  <si>
-    <t>indiquer l’ensemble des prêts et subventions.</t>
-  </si>
-  <si>
-    <t>Commune et action logement</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>Autre/Subventions</t>
   </si>
   <si>
     <r>
@@ -132,6 +69,74 @@
       <t>Si le prêt est en cours de signature, indiquez une durée indicative</t>
     </r>
   </si>
+  <si>
+    <t>Montant
+(en €)</t>
+  </si>
+  <si>
+    <t>Prêteur
+(choisir dans la liste déroulante)</t>
+  </si>
+  <si>
+    <t>Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
+  </si>
+  <si>
+    <t>Ici quelques explications</t>
+  </si>
+  <si>
+    <t>1. Telechager le modèle (ce fichier)</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>3. Enregistrer vos modifications</t>
+  </si>
+  <si>
+    <t>4. Téléverser le fichier modifié dans l'application</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
+  </si>
+  <si>
+    <t>indiquer l’ensemble des prêts et subventions.</t>
+  </si>
+  <si>
+    <t>Prêteurs (Ne pas modifier)</t>
+  </si>
+  <si>
+    <t>ligne data</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>CDC pour le foncier</t>
+  </si>
+  <si>
+    <t>CDC pour le logement</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>EPCI</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>ANRU</t>
+  </si>
+  <si>
+    <t>Autre/Subventions</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,6 +352,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -394,6 +405,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -403,13 +421,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -453,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="preteurs" displayName="preteurs" ref="A1:A10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="preteurs" displayName="preteurs" ref="A1:A10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
   <autoFilter ref="A1:A10" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Prêteurs (Ne pas modifier)" dataDxfId="0"/>
@@ -463,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -503,7 +514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -609,7 +620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -751,7 +762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,216 +770,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>10</v>
+    <row r="1" spans="1:7" ht="72" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="19"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="9"/>
-    </row>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -979,7 +1016,7 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E22</xm:sqref>
+          <xm:sqref>F3:F22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -993,50 +1030,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1051,65 +1088,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoub.bouchachia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A531B-BB5A-4F31-8DC0-F9A7D4E8262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982554E2-5205-4DF0-BC2E-FDA66B29DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28332" yWindow="1008" windowWidth="23040" windowHeight="12120" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,75 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Ici quelques explications</t>
-  </si>
-  <si>
-    <t>1. Telechager le modèle (ce fichier)</t>
-  </si>
-  <si>
-    <t>3. Enregistrer vos modifications</t>
-  </si>
-  <si>
-    <t>4. Téléverser le fichier modifié dans l'application</t>
-  </si>
-  <si>
-    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
-  </si>
-  <si>
-    <t>EPCI</t>
-  </si>
-  <si>
-    <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>Montant
-(en €)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Numéro
+(caractères alphanuméric)</t>
+  </si>
+  <si>
+    <t>Financement</t>
   </si>
   <si>
     <t>Date d'octroi
 (format dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>Numéro
-(caractères alphanuméric)</t>
-  </si>
-  <si>
-    <t>CDC pour le foncier</t>
-  </si>
-  <si>
-    <t>CDC pour le logement</t>
-  </si>
-  <si>
-    <t>2. Modifier à votre guise le fichier</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
-    <t>ANRU</t>
-  </si>
-  <si>
-    <t>ligne data</t>
-  </si>
-  <si>
-    <t>indiquer l’ensemble des prêts et subventions.</t>
-  </si>
-  <si>
-    <t>Commune et action logement</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>Autre/Subventions</t>
   </si>
   <si>
     <r>
@@ -126,11 +70,72 @@
     </r>
   </si>
   <si>
-    <t>Organisme financeur
+    <t>Montant
+(en €)</t>
+  </si>
+  <si>
+    <t>Prêteur
 (choisir dans la liste déroulante)</t>
   </si>
   <si>
-    <t>Préciser l'identité de l'organisme financeur si vous avez sélectionné 'Autre'</t>
+    <t>Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
+  </si>
+  <si>
+    <t>Ici quelques explications</t>
+  </si>
+  <si>
+    <t>1. Telechager le modèle (ce fichier)</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>3. Enregistrer vos modifications</t>
+  </si>
+  <si>
+    <t>4. Téléverser le fichier modifié dans l'application</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
+  </si>
+  <si>
+    <t>indiquer l’ensemble des prêts et subventions.</t>
+  </si>
+  <si>
+    <t>Prêteurs (Ne pas modifier)</t>
+  </si>
+  <si>
+    <t>ligne data</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>CDC pour le foncier</t>
+  </si>
+  <si>
+    <t>CDC pour le logement</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>EPCI</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>ANRU</t>
+  </si>
+  <si>
+    <t>Autre/Subventions</t>
   </si>
 </sst>
 </file>
@@ -328,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,6 +352,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,216 +770,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.796875" customWidth="1"/>
-    <col min="5" max="5" width="30.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>9</v>
+    <row r="1" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="19"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -979,7 +1015,7 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E22</xm:sqref>
+          <xm:sqref>F3:F22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -993,50 +1029,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1051,65 +1087,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\production\siap\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A531B-BB5A-4F31-8DC0-F9A7D4E8262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113066E3-BEF5-49F8-BA08-37D1F01D421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28332" yWindow="1008" windowWidth="23040" windowHeight="12120" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,75 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Ici quelques explications</t>
-  </si>
-  <si>
-    <t>1. Telechager le modèle (ce fichier)</t>
-  </si>
-  <si>
-    <t>3. Enregistrer vos modifications</t>
-  </si>
-  <si>
-    <t>4. Téléverser le fichier modifié dans l'application</t>
-  </si>
-  <si>
-    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
-  </si>
-  <si>
-    <t>EPCI</t>
-  </si>
-  <si>
-    <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>Montant
-(en €)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Numéro
+(caractères alphanuméric)</t>
+  </si>
+  <si>
+    <t>Financement</t>
   </si>
   <si>
     <t>Date d'octroi
 (format dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>Numéro
-(caractères alphanuméric)</t>
-  </si>
-  <si>
-    <t>CDC pour le foncier</t>
-  </si>
-  <si>
-    <t>CDC pour le logement</t>
-  </si>
-  <si>
-    <t>2. Modifier à votre guise le fichier</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
-    <t>ANRU</t>
-  </si>
-  <si>
-    <t>ligne data</t>
-  </si>
-  <si>
-    <t>indiquer l’ensemble des prêts et subventions.</t>
-  </si>
-  <si>
-    <t>Commune et action logement</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>Autre/Subventions</t>
   </si>
   <si>
     <r>
@@ -124,6 +68,67 @@
       </rPr>
       <t>Si le prêt est en cours de signature, indiquez une durée indicative</t>
     </r>
+  </si>
+  <si>
+    <t>Montant
+(en €)</t>
+  </si>
+  <si>
+    <t>Ici quelques explications</t>
+  </si>
+  <si>
+    <t>1. Telechager le modèle (ce fichier)</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>3. Enregistrer vos modifications</t>
+  </si>
+  <si>
+    <t>4. Téléverser le fichier modifié dans l'application</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
+  </si>
+  <si>
+    <t>indiquer l’ensemble des prêts et subventions.</t>
+  </si>
+  <si>
+    <t>Prêteurs (Ne pas modifier)</t>
+  </si>
+  <si>
+    <t>ligne data</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>CDC pour le foncier</t>
+  </si>
+  <si>
+    <t>CDC pour le logement</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>EPCI</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>ANRU</t>
+  </si>
+  <si>
+    <t>Autre/Subventions</t>
   </si>
   <si>
     <t>Organisme financeur
@@ -328,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,6 +352,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,216 +770,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.796875" customWidth="1"/>
-    <col min="5" max="5" width="30.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>9</v>
+    <row r="1" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
+      <c r="G1" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="19"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -979,7 +1015,7 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E22</xm:sqref>
+          <xm:sqref>F3:F22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -993,50 +1029,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1051,65 +1087,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762975EC-3214-904C-AAA5-0B56EA998315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A531B-BB5A-4F31-8DC0-F9A7D4E8262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="28332" yWindow="1008" windowWidth="23040" windowHeight="12120" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
   </si>
   <si>
-    <t>Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
-  </si>
-  <si>
     <t>EPCI</t>
   </si>
   <si>
@@ -72,10 +69,6 @@
   <si>
     <t>Numéro
 (caractères alphanuméric)</t>
-  </si>
-  <si>
-    <t>Prêteur
-(choisir dans la liste déroulante)</t>
   </si>
   <si>
     <t>CDC pour le foncier</t>
@@ -131,6 +124,13 @@
       </rPr>
       <t>Si le prêt est en cours de signature, indiquez une durée indicative</t>
     </r>
+  </si>
+  <si>
+    <t>Organisme financeur
+(choisir dans la liste déroulante)</t>
+  </si>
+  <si>
+    <t>Préciser l'identité de l'organisme financeur si vous avez sélectionné 'Autre'</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -762,38 +762,38 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.796875" customWidth="1"/>
+    <col min="5" max="5" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -801,7 +801,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -809,7 +809,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -817,7 +817,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -825,7 +825,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -833,7 +833,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -841,7 +841,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -849,7 +849,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -857,7 +857,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -865,7 +865,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -873,7 +873,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -881,7 +881,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -889,7 +889,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -897,7 +897,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -905,7 +905,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -913,7 +913,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -921,7 +921,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -929,7 +929,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -937,7 +937,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -945,7 +945,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -953,7 +953,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -993,50 +993,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1051,65 +1051,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayoub.bouchachia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\production\siap\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982554E2-5205-4DF0-BC2E-FDA66B29DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B6700-FC61-4319-9B6F-16CE7B4AA97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
@@ -74,68 +74,68 @@
 (en €)</t>
   </si>
   <si>
-    <t>Prêteur
+    <t>Ici quelques explications</t>
+  </si>
+  <si>
+    <t>1. Telechager le modèle (ce fichier)</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>3. Enregistrer vos modifications</t>
+  </si>
+  <si>
+    <t>4. Téléverser le fichier modifié dans l'application</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
+  </si>
+  <si>
+    <t>indiquer l’ensemble des prêts et subventions.</t>
+  </si>
+  <si>
+    <t>Prêteurs (Ne pas modifier)</t>
+  </si>
+  <si>
+    <t>ligne data</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>CDC pour le foncier</t>
+  </si>
+  <si>
+    <t>CDC pour le logement</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>EPCI</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>ANRU</t>
+  </si>
+  <si>
+    <t>Autre/Subventions</t>
+  </si>
+  <si>
+    <t>Organisme financeur
 (choisir dans la liste déroulante)</t>
   </si>
   <si>
-    <t>Préciser l'identité du préteur si vous avez sélectionné 'Autre'</t>
-  </si>
-  <si>
-    <t>Ici quelques explications</t>
-  </si>
-  <si>
-    <t>1. Telechager le modèle (ce fichier)</t>
-  </si>
-  <si>
-    <t>2. Modifier à votre guise le fichier</t>
-  </si>
-  <si>
-    <t>3. Enregistrer vos modifications</t>
-  </si>
-  <si>
-    <t>4. Téléverser le fichier modifié dans l'application</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
-    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
-  </si>
-  <si>
-    <t>indiquer l’ensemble des prêts et subventions.</t>
-  </si>
-  <si>
-    <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>ligne data</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>CDC pour le foncier</t>
-  </si>
-  <si>
-    <t>CDC pour le logement</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>EPCI</t>
-  </si>
-  <si>
-    <t>Commune et action logement</t>
-  </si>
-  <si>
-    <t>ANRU</t>
-  </si>
-  <si>
-    <t>Autre/Subventions</t>
+    <t>Préciser l'identité de l'organisme financeur si vous avez sélectionné 'Autre'</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,10 +802,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1037,42 +1037,42 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1094,15 +1094,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
@@ -1110,42 +1110,42 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\production\siap\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B6700-FC61-4319-9B6F-16CE7B4AA97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113066E3-BEF5-49F8-BA08-37D1F01D421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>

--- a/static/files/financement.xlsx
+++ b/static/files/financement.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\production\siap\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113066E3-BEF5-49F8-BA08-37D1F01D421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A531B-BB5A-4F31-8DC0-F9A7D4E8262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="28332" yWindow="1008" windowWidth="23040" windowHeight="12120" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Financements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,17 +36,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Ici quelques explications</t>
+  </si>
+  <si>
+    <t>1. Telechager le modèle (ce fichier)</t>
+  </si>
+  <si>
+    <t>3. Enregistrer vos modifications</t>
+  </si>
+  <si>
+    <t>4. Téléverser le fichier modifié dans l'application</t>
+  </si>
+  <si>
+    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
+  </si>
+  <si>
+    <t>EPCI</t>
+  </si>
+  <si>
+    <t>Prêteurs (Ne pas modifier)</t>
+  </si>
+  <si>
+    <t>Montant
+(en €)</t>
+  </si>
+  <si>
+    <t>Date d'octroi
+(format dd/mm/yyyy)</t>
+  </si>
   <si>
     <t>Numéro
 (caractères alphanuméric)</t>
   </si>
   <si>
-    <t>Financement</t>
-  </si>
-  <si>
-    <t>Date d'octroi
-(format dd/mm/yyyy)</t>
+    <t>CDC pour le foncier</t>
+  </si>
+  <si>
+    <t>CDC pour le logement</t>
+  </si>
+  <si>
+    <t>2. Modifier à votre guise le fichier</t>
+  </si>
+  <si>
+    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
+  </si>
+  <si>
+    <t>ANRU</t>
+  </si>
+  <si>
+    <t>ligne data</t>
+  </si>
+  <si>
+    <t>indiquer l’ensemble des prêts et subventions.</t>
+  </si>
+  <si>
+    <t>Commune et action logement</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>Autre/Subventions</t>
   </si>
   <si>
     <r>
@@ -68,67 +124,6 @@
       </rPr>
       <t>Si le prêt est en cours de signature, indiquez une durée indicative</t>
     </r>
-  </si>
-  <si>
-    <t>Montant
-(en €)</t>
-  </si>
-  <si>
-    <t>Ici quelques explications</t>
-  </si>
-  <si>
-    <t>1. Telechager le modèle (ce fichier)</t>
-  </si>
-  <si>
-    <t>2. Modifier à votre guise le fichier</t>
-  </si>
-  <si>
-    <t>3. Enregistrer vos modifications</t>
-  </si>
-  <si>
-    <t>4. Téléverser le fichier modifié dans l'application</t>
-  </si>
-  <si>
-    <t>5. Vérifier le contenu téléversé dans l'application et enregistrer en cliquant sur le bouton 'Enregistrer et Suivant'</t>
-  </si>
-  <si>
-    <t>Attention, en aucun cas vous ne devez modifier l'entête du tableau des prêts, cela casserait l'import des données</t>
-  </si>
-  <si>
-    <t>indiquer l’ensemble des prêts et subventions.</t>
-  </si>
-  <si>
-    <t>Prêteurs (Ne pas modifier)</t>
-  </si>
-  <si>
-    <t>ligne data</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>CDC pour le foncier</t>
-  </si>
-  <si>
-    <t>CDC pour le logement</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>EPCI</t>
-  </si>
-  <si>
-    <t>Commune et action logement</t>
-  </si>
-  <si>
-    <t>ANRU</t>
-  </si>
-  <si>
-    <t>Autre/Subventions</t>
   </si>
   <si>
     <t>Organisme financeur
@@ -333,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -352,12 +347,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,241 +759,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.796875" customWidth="1"/>
+    <col min="5" max="5" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1015,7 +979,7 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F22</xm:sqref>
+          <xm:sqref>E3:E22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1029,50 +993,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1087,65 +1051,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
